--- a/clean_data/model_X.xlsx
+++ b/clean_data/model_X.xlsx
@@ -1,58 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -60,18 +45,94 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -150,7 +211,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -185,7 +245,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -220,16 +279,20 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:shade val="100000"/>
-                <a:satMod val="350000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -351,1915 +414,1883 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:spDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="3">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </a:style>
-    </a:spDef>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A371"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="str">
-        <v>Nivel_Felicidad</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nivel_Felicidad</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="str">
-        <v>3</v>
+      <c r="A2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="str">
-        <v>3</v>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="str">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="str">
-        <v>3</v>
+      <c r="A5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="str">
+      <c r="A6" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="str">
+      <c r="A7" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="str">
+      <c r="A8" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="str">
-        <v>3</v>
+      <c r="A9" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="str">
-        <v>3</v>
+      <c r="A10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="str">
-        <v>4</v>
+      <c r="A11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="str">
-        <v>3</v>
+      <c r="A12" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="str">
-        <v>3</v>
+      <c r="A13" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="str">
+      <c r="A14" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="str">
-        <v>3</v>
+      <c r="A15" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="str">
-        <v>3</v>
+      <c r="A16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="str">
+      <c r="A17" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="str">
-        <v>3</v>
+      <c r="A18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="str">
-        <v>3</v>
+      <c r="A19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="str">
+      <c r="A20" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="str">
-        <v>3</v>
+      <c r="A21" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="str">
+      <c r="A22" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="str">
-        <v>3</v>
+      <c r="A23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="str">
-        <v>3</v>
+      <c r="A24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="str">
-        <v>3</v>
+      <c r="A25" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="str">
-        <v>3</v>
+      <c r="A26" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="str">
-        <v>3</v>
+      <c r="A27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="str">
-        <v>3</v>
+      <c r="A28" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="str">
-        <v>3</v>
+      <c r="A29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="str">
+      <c r="A30" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="str">
-        <v>4</v>
+      <c r="A31" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="str">
-        <v>3</v>
+      <c r="A32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="str">
-        <v>3</v>
+      <c r="A33" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="str">
-        <v>3</v>
+      <c r="A34" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="str">
-        <v>3</v>
+      <c r="A35" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="str">
-        <v>3</v>
+      <c r="A36" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="str">
-        <v>3</v>
+      <c r="A37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="str">
+      <c r="A38" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="str">
-        <v>3</v>
+      <c r="A39" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="str">
+      <c r="A40" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="str">
+      <c r="A41" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="str">
+      <c r="A42" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="str">
-        <v>3</v>
+      <c r="A43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="str">
-        <v>3</v>
+      <c r="A44" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="str">
-        <v>3</v>
+      <c r="A45" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="str">
-        <v>3</v>
+      <c r="A46" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="str">
+      <c r="A47" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="str">
-        <v>3</v>
+      <c r="A48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="str">
-        <v>3</v>
+      <c r="A49" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="str">
-        <v>3</v>
+      <c r="A50" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="str">
-        <v>3</v>
+      <c r="A51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="str">
-        <v>4</v>
+      <c r="A52" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="str">
-        <v>3</v>
+      <c r="A53" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="str">
-        <v>3</v>
+      <c r="A54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="str">
+      <c r="A55" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="str">
-        <v>3</v>
+      <c r="A56" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="str">
+      <c r="A57" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="str">
-        <v>3</v>
+      <c r="A58" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="str">
+      <c r="A59" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="str">
-        <v>3</v>
+      <c r="A60" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="str">
-        <v>3</v>
+      <c r="A61" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="str">
-        <v>3</v>
+      <c r="A62" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="str">
-        <v>4</v>
+      <c r="A63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="str">
-        <v>3</v>
+      <c r="A64" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="str">
-        <v>3</v>
+      <c r="A65" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="str">
-        <v>3</v>
+      <c r="A66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="str">
-        <v>3</v>
+      <c r="A67" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="str">
-        <v>3</v>
+      <c r="A68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="str">
-        <v>3</v>
+      <c r="A69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="str">
-        <v>3</v>
+      <c r="A70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="str">
-        <v>3</v>
+      <c r="A71" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="str">
-        <v>3</v>
+      <c r="A72" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="str">
+      <c r="A73" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="str">
-        <v>3</v>
+      <c r="A74" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="str">
-        <v>3</v>
+      <c r="A75" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="str">
-        <v>3</v>
+      <c r="A76" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="str">
-        <v>4</v>
+      <c r="A77" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="str">
-        <v>3</v>
+      <c r="A78" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="str">
-        <v>3</v>
+      <c r="A79" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="str">
-        <v>3</v>
+      <c r="A80" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="str">
-        <v>2</v>
+      <c r="A81" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="str">
-        <v>3</v>
+      <c r="A82" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="str">
-        <v>3</v>
+      <c r="A83" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="str">
-        <v>3</v>
+      <c r="A84" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="str">
-        <v>3</v>
+      <c r="A85" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="str">
-        <v>3</v>
+      <c r="A86" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="str">
-        <v>3</v>
+      <c r="A87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="str">
-        <v>3</v>
+      <c r="A88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="str">
-        <v>3</v>
+      <c r="A89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="str">
-        <v>4</v>
+      <c r="A90" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="str">
-        <v>3</v>
+      <c r="A91" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="str">
-        <v>3</v>
+      <c r="A92" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="str">
-        <v>3</v>
+      <c r="A93" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="str">
-        <v>3</v>
+      <c r="A94" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="str">
-        <v>3</v>
+      <c r="A95" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="str">
-        <v>3</v>
+      <c r="A96" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="str">
-        <v>3</v>
+      <c r="A97" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="str">
-        <v>3</v>
+      <c r="A98" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="str">
-        <v>3</v>
+      <c r="A99" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="str">
-        <v>3</v>
+      <c r="A100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="str">
+      <c r="A101" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="str">
-        <v>3</v>
+      <c r="A102" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="str">
-        <v>3</v>
+      <c r="A103" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="str">
-        <v>3</v>
+      <c r="A104" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="str">
-        <v>3</v>
+      <c r="A105" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="str">
+      <c r="A106" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="str">
-        <v>3</v>
+      <c r="A107" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="str">
+      <c r="A108" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="str">
-        <v>3</v>
+      <c r="A109" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="str">
-        <v>3</v>
+      <c r="A110" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="str">
+      <c r="A111" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="str">
-        <v>3</v>
+      <c r="A112" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="str">
-        <v>3</v>
+      <c r="A113" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="str">
-        <v>3</v>
+      <c r="A114" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="str">
-        <v>3</v>
+      <c r="A115" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="str">
-        <v>3</v>
+      <c r="A116" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="str">
-        <v>4</v>
+      <c r="A117" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="str">
-        <v>3</v>
+      <c r="A118" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="str">
-        <v>3</v>
+      <c r="A119" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="str">
-        <v>3</v>
+      <c r="A120" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="str">
-        <v>3</v>
+      <c r="A121" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="str">
-        <v>3</v>
+      <c r="A122" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="str">
+      <c r="A123" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="str">
+      <c r="A124" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="str">
-        <v>3</v>
+      <c r="A125" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="str">
-        <v>3</v>
+      <c r="A126" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="str">
+      <c r="A127" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="str">
-        <v>3</v>
+      <c r="A128" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="str">
-        <v>3</v>
+      <c r="A129" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="str">
+      <c r="A130" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="str">
-        <v>3</v>
+      <c r="A131" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="str">
-        <v>3</v>
+      <c r="A132" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="str">
-        <v>3</v>
+      <c r="A133" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="str">
+      <c r="A134" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="str">
-        <v>3</v>
+      <c r="A135" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="str">
-        <v>3</v>
+      <c r="A136" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="str">
+      <c r="A137" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="str">
-        <v>3</v>
+      <c r="A138" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="str">
+      <c r="A139" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="str">
+      <c r="A140" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="str">
-        <v>3</v>
+      <c r="A141" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="str">
-        <v>3</v>
+      <c r="A142" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="str">
-        <v>3</v>
+      <c r="A143" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="str">
-        <v>3</v>
+      <c r="A144" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="str">
+      <c r="A145" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="str">
-        <v>3</v>
+      <c r="A146" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="str">
-        <v>3</v>
+      <c r="A147" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="str">
-        <v>3</v>
+      <c r="A148" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="str">
-        <v>3</v>
+      <c r="A149" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="str">
-        <v>3</v>
+      <c r="A150" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="str">
-        <v>3</v>
+      <c r="A151" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="str">
-        <v>3</v>
+      <c r="A152" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="str">
-        <v>3</v>
+      <c r="A153" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="str">
+      <c r="A154" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="str">
-        <v>3</v>
+      <c r="A155" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="str">
+      <c r="A156" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="str">
-        <v>3</v>
+      <c r="A157" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="str">
-        <v>3</v>
+      <c r="A158" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="str">
-        <v>3</v>
+      <c r="A159" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="str">
-        <v>3</v>
+      <c r="A160" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="str">
-        <v>3</v>
+      <c r="A161" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="str">
+      <c r="A162" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="str">
-        <v>3</v>
+      <c r="A163" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="str">
-        <v>3</v>
+      <c r="A164" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="str">
-        <v>3</v>
+      <c r="A165" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="str">
-        <v>3</v>
+      <c r="A166" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="str">
-        <v>3</v>
+      <c r="A167" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="str">
-        <v>3</v>
+      <c r="A168" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="str">
+      <c r="A169" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="str">
+      <c r="A170" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="str">
-        <v>3</v>
+      <c r="A171" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="str">
-        <v>4</v>
+      <c r="A172" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="str">
-        <v>3</v>
+      <c r="A173" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="str">
+      <c r="A174" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="str">
-        <v>3</v>
+      <c r="A175" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="str">
-        <v>3</v>
+      <c r="A176" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="str">
-        <v>3</v>
+      <c r="A177" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="str">
+      <c r="A178" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="str">
-        <v>3</v>
+      <c r="A179" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="str">
-        <v>3</v>
+      <c r="A180" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="str">
-        <v>3</v>
+      <c r="A181" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="str">
-        <v>3</v>
+      <c r="A182" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="str">
+      <c r="A183" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="str">
-        <v>4</v>
+      <c r="A184" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="str">
-        <v>3</v>
+      <c r="A185" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="str">
-        <v>3</v>
+      <c r="A186" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="str">
-        <v>3</v>
+      <c r="A187" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="str">
-        <v>3</v>
+      <c r="A188" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="str">
-        <v>3</v>
+      <c r="A189" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="str">
-        <v>4</v>
+      <c r="A190" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="str">
-        <v>4</v>
+      <c r="A191" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="str">
-        <v>3</v>
+      <c r="A192" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="str">
-        <v>3</v>
+      <c r="A193" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="str">
-        <v>3</v>
+      <c r="A194" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="str">
-        <v>3</v>
+      <c r="A195" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="str">
-        <v>3</v>
+      <c r="A196" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="str">
-        <v>3</v>
+      <c r="A197" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="str">
+      <c r="A198" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="str">
+      <c r="A199" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="str">
-        <v>3</v>
+      <c r="A200" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="str">
+      <c r="A201" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="str">
-        <v>3</v>
+      <c r="A202" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="str">
+      <c r="A203" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="str">
-        <v>3</v>
+      <c r="A204" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="str">
-        <v>3</v>
+      <c r="A205" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="str">
-        <v>3</v>
+      <c r="A206" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="str">
+      <c r="A207" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="str">
-        <v>3</v>
+      <c r="A208" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="str">
-        <v>3</v>
+      <c r="A209" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="str">
-        <v>3</v>
+      <c r="A210" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="str">
-        <v>3</v>
+      <c r="A211" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="str">
-        <v>3</v>
+      <c r="A212" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="str">
-        <v>3</v>
+      <c r="A213" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="str">
-        <v>3</v>
+      <c r="A214" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="str">
-        <v>3</v>
+      <c r="A215" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="str">
-        <v>3</v>
+      <c r="A216" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="str">
-        <v>3</v>
+      <c r="A217" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="str">
+      <c r="A218" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="str">
-        <v>3</v>
+      <c r="A219" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="str">
-        <v>3</v>
+      <c r="A220" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="str">
-        <v>3</v>
+      <c r="A221" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="str">
-        <v>3</v>
+      <c r="A222" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="str">
-        <v>3</v>
+      <c r="A223" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="str">
-        <v>3</v>
+      <c r="A224" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="str">
-        <v>3</v>
+      <c r="A225" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="str">
-        <v>3</v>
+      <c r="A226" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="str">
+      <c r="A227" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="str">
-        <v>4</v>
+      <c r="A228" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="str">
-        <v>3</v>
+      <c r="A229" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="str">
-        <v>3</v>
+      <c r="A230" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="str">
-        <v>3</v>
+      <c r="A231" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="str">
-        <v>4</v>
+      <c r="A232" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="str">
-        <v>3</v>
+      <c r="A233" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="str">
+      <c r="A234" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="str">
-        <v>3</v>
+      <c r="A235" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="str">
-        <v>4</v>
+      <c r="A236" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="str">
+      <c r="A237" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="str">
-        <v>3</v>
+      <c r="A238" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="str">
+      <c r="A239" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="str">
-        <v>4</v>
+      <c r="A240" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="str">
-        <v>3</v>
+      <c r="A241" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="str">
-        <v>4</v>
+      <c r="A242" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="str">
-        <v>4</v>
+      <c r="A243" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="str">
-        <v>4</v>
+      <c r="A244" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="str">
-        <v>3</v>
+      <c r="A245" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="str">
-        <v>3</v>
+      <c r="A246" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="str">
-        <v>3</v>
+      <c r="A247" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="str">
-        <v>3</v>
+      <c r="A248" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="str">
-        <v>3</v>
+      <c r="A249" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="str">
+      <c r="A250" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" t="str">
-        <v>4</v>
+      <c r="A251" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="str">
-        <v>3</v>
+      <c r="A252" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="253">
-      <c r="A253" t="str">
-        <v>3</v>
+      <c r="A253" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="str">
-        <v>4</v>
+      <c r="A254" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="255">
-      <c r="A255" t="str">
-        <v>4</v>
+      <c r="A255" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="str">
-        <v>3</v>
+      <c r="A256" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="str">
-        <v>4</v>
+      <c r="A257" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="str">
-        <v>3</v>
+      <c r="A258" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="str">
-        <v>4</v>
+      <c r="A259" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="str">
+      <c r="A260" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="str">
+      <c r="A261" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="str">
-        <v>3</v>
+      <c r="A262" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="str">
-        <v>3</v>
+      <c r="A263" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="264">
-      <c r="A264" t="str">
-        <v>4</v>
+      <c r="A264" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="str">
+      <c r="A265" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="str">
-        <v>3</v>
+      <c r="A266" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="str">
-        <v>3</v>
+      <c r="A267" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="268">
-      <c r="A268" t="str">
+      <c r="A268" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="str">
-        <v>3</v>
+      <c r="A269" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="str">
+      <c r="A270" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="str">
-        <v>3</v>
+      <c r="A271" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="str">
-        <v>3</v>
+      <c r="A272" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="273">
-      <c r="A273" t="str">
-        <v>3</v>
+      <c r="A273" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="274">
-      <c r="A274" t="str">
-        <v>3</v>
+      <c r="A274" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="str">
-        <v>3</v>
+      <c r="A275" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="str">
-        <v>3</v>
+      <c r="A276" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="str">
-        <v>3</v>
+      <c r="A277" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="str">
-        <v>3</v>
+      <c r="A278" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="str">
-        <v>3</v>
+      <c r="A279" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="280">
-      <c r="A280" t="str">
-        <v>3</v>
+      <c r="A280" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="281">
-      <c r="A281" t="str">
-        <v>3</v>
+      <c r="A281" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="str">
-        <v>3</v>
+      <c r="A282" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="str">
-        <v>3</v>
+      <c r="A283" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="str">
-        <v>3</v>
+      <c r="A284" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="285">
-      <c r="A285" t="str">
-        <v>4</v>
+      <c r="A285" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="str">
-        <v>3</v>
+      <c r="A286" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="287">
-      <c r="A287" t="str">
-        <v>3</v>
+      <c r="A287" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="str">
-        <v>3</v>
+      <c r="A288" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="str">
-        <v>3</v>
+      <c r="A289" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="str">
-        <v>3</v>
+      <c r="A290" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="str">
-        <v>3</v>
+      <c r="A291" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="292">
-      <c r="A292" t="str">
-        <v>3</v>
+      <c r="A292" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" t="str">
-        <v>3</v>
+      <c r="A293" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="str">
-        <v>4</v>
+      <c r="A294" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="str">
-        <v>3</v>
+      <c r="A295" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="296">
-      <c r="A296" t="str">
-        <v>3</v>
+      <c r="A296" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="str">
-        <v>3</v>
+      <c r="A297" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="298">
-      <c r="A298" t="str">
-        <v>3</v>
+      <c r="A298" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="299">
-      <c r="A299" t="str">
-        <v>3</v>
+      <c r="A299" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="str">
-        <v>3</v>
+      <c r="A300" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="301">
-      <c r="A301" t="str">
-        <v>3</v>
+      <c r="A301" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="str">
-        <v>3</v>
+      <c r="A302" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="str">
-        <v>3</v>
+      <c r="A303" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="str">
-        <v>3</v>
+      <c r="A304" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="305">
-      <c r="A305" t="str">
-        <v>3</v>
+      <c r="A305" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="str">
-        <v>3</v>
+      <c r="A306" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="str">
-        <v>3</v>
+      <c r="A307" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="308">
-      <c r="A308" t="str">
+      <c r="A308" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="str">
-        <v>3</v>
+      <c r="A309" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="str">
-        <v>3</v>
+      <c r="A310" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="311">
-      <c r="A311" t="str">
+      <c r="A311" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="str">
-        <v>4</v>
+      <c r="A312" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="str">
-        <v>3</v>
+      <c r="A313" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="314">
-      <c r="A314" t="str">
-        <v>3</v>
+      <c r="A314" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="315">
-      <c r="A315" t="str">
-        <v>3</v>
+      <c r="A315" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="str">
-        <v>4</v>
+      <c r="A316" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="317">
-      <c r="A317" t="str">
-        <v>3</v>
+      <c r="A317" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="str">
-        <v>4</v>
+      <c r="A318" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="319">
-      <c r="A319" t="str">
-        <v>4</v>
+      <c r="A319" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="320">
-      <c r="A320" t="str">
-        <v>3</v>
+      <c r="A320" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="str">
-        <v>3</v>
+      <c r="A321" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="str">
-        <v>3</v>
+      <c r="A322" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="str">
-        <v>3</v>
+      <c r="A323" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="str">
-        <v>4</v>
+      <c r="A324" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="str">
-        <v>3</v>
+      <c r="A325" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="str">
-        <v>3</v>
+      <c r="A326" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="str">
-        <v>3</v>
+      <c r="A327" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="str">
-        <v>3</v>
+      <c r="A328" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="str">
-        <v>3</v>
+      <c r="A329" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="str">
-        <v>3</v>
+      <c r="A330" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="str">
-        <v>3</v>
+      <c r="A331" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="332">
-      <c r="A332" t="str">
-        <v>4</v>
+      <c r="A332" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="str">
-        <v>3</v>
+      <c r="A333" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="334">
-      <c r="A334" t="str">
-        <v>3</v>
+      <c r="A334" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="str">
-        <v>3</v>
+      <c r="A335" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="336">
-      <c r="A336" t="str">
-        <v>3</v>
+      <c r="A336" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="str">
-        <v>3</v>
+      <c r="A337" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="338">
-      <c r="A338" t="str">
-        <v>3</v>
+      <c r="A338" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="str">
-        <v>3</v>
+      <c r="A339" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="340">
-      <c r="A340" t="str">
+      <c r="A340" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="str">
+      <c r="A341" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="str">
-        <v>3</v>
+      <c r="A342" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="str">
-        <v>3</v>
+      <c r="A343" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="str">
+      <c r="A344" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="str">
-        <v>3</v>
+      <c r="A345" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="str">
-        <v>3</v>
+      <c r="A346" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="347">
-      <c r="A347" t="str">
-        <v>3</v>
+      <c r="A347" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="348">
-      <c r="A348" t="str">
-        <v>3</v>
+      <c r="A348" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="str">
-        <v>2</v>
+      <c r="A349" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="str">
-        <v>3</v>
+      <c r="A350" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="str">
-        <v>3</v>
+      <c r="A351" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="352">
-      <c r="A352" t="str">
+      <c r="A352" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="353">
-      <c r="A353" t="str">
-        <v>3</v>
+      <c r="A353" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="354">
-      <c r="A354" t="str">
-        <v>3</v>
+      <c r="A354" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="str">
-        <v>3</v>
+      <c r="A355" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="str">
-        <v>3</v>
+      <c r="A356" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="str">
+      <c r="A357" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="358">
-      <c r="A358" t="str">
-        <v>3</v>
+      <c r="A358" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="359">
-      <c r="A359" t="str">
-        <v>3</v>
+      <c r="A359" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="360">
-      <c r="A360" t="str">
-        <v>3</v>
+      <c r="A360" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="str">
-        <v>4</v>
+      <c r="A361" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="str">
+      <c r="A362" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="363">
-      <c r="A363" t="str">
-        <v>3</v>
+      <c r="A363" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="364">
-      <c r="A364" t="str">
-        <v>3</v>
+      <c r="A364" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="str">
-        <v>3</v>
+      <c r="A365" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="366">
-      <c r="A366" t="str">
-        <v>3</v>
+      <c r="A366" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="str">
-        <v>3</v>
+      <c r="A367" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="str">
-        <v>3</v>
+      <c r="A368" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="str">
-        <v>3</v>
+      <c r="A369" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="370">
-      <c r="A370" t="str">
-        <v>3</v>
+      <c r="A370" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="371">
-      <c r="A371" t="str">
-        <v>3</v>
+      <c r="A371" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A371"/>
-  </ignoredErrors>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/clean_data/model_X.xlsx
+++ b/clean_data/model_X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A371"/>
+  <dimension ref="A1:B371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,1855 +439,2970 @@
           <t>Nivel_Felicidad</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Indice_Sociabilidad</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B3" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B13" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B15" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B17" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B18" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B36" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B37" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B42" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B43" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B48" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B51" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B52" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B53" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B55" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B56" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B61" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B63" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B66" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B67" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B70" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B75" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>3</v>
+        <v>1.93</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B78" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B79" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>1</v>
+        <v>1.22</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B85" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B86" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B97" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B98" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B100" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B101" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B102" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B105" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B108" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B116" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B118" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B127" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B128" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B132" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B137" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B139" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B143" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B146" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B154" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B155" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B158" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B160" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B161" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B162" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B163" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B164" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B167" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B169" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B171" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B172" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B173" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B174" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B175" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B176" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B177" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B178" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B180" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B182" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B183" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B184" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B185" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B191" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B192" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B194" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B195" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B197" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B199" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>3</v>
+        <v>1.93</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B202" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B203" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B204" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B205" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B207" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B209" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B212" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B218" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B219" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B220" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B222" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B225" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B226" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B227" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>3</v>
+        <v>1.93</v>
+      </c>
+      <c r="B228" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B230" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B231" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B232" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B233" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>2</v>
+        <v>0.45</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B235" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B236" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B238" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B240" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B243" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B244" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B246" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B247" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B248" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B249" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B251" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B252" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B253" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B255" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B256" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B257" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B260" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B261" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B262" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B264" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B266" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B267" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B268" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B269" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B270" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B272" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B273" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B279" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B280" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B281" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B282" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B283" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B284" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B285" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B288" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B289" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B290" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B292" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B294" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B296" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B298" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B299" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B301" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B303" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B305" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B306" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B307" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B308" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B309" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B310" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B312" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B313" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B314" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B315" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B317" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B318" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B319" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B320" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B321" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B322" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B323" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B325" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B326" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B327" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B328" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B329" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B332" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B333" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B334" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B338" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B339" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>3</v>
+        <v>1.93</v>
+      </c>
+      <c r="B341" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B343" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B345" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B346" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B347" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B348" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>1</v>
+        <v>1.22</v>
+      </c>
+      <c r="B349" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B350" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B351" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>3</v>
+        <v>0.45</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B353" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B354" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>3</v>
+        <v>1.22</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>3</v>
+        <v>1.58</v>
+      </c>
+      <c r="B362" t="n">
+        <v>3.96</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>2</v>
+        <v>1.93</v>
+      </c>
+      <c r="B364" t="n">
+        <v>5.42</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>2</v>
+        <v>1.22</v>
+      </c>
+      <c r="B369" t="n">
+        <v>2.68</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>2</v>
+        <v>0.85</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>2</v>
+        <v>1.58</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3.96</v>
       </c>
     </row>
   </sheetData>
